--- a/biology/Origine et évolution du vivant/Modèle_NK/Modèle_NK.xlsx
+++ b/biology/Origine et évolution du vivant/Modèle_NK/Modèle_NK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_NK</t>
+          <t>Modèle_NK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le modèle NK est un modèle mathématique formulé par Stuart Kauffman et permettant de décrire un paysage adaptatif "rugueux adaptable". Cette "rugosité" suppose que, à la fois la taille globale du paysage et le nombre de "pics" et "vallées" locales peuvent être ajustés via des changements dans ses deux paramètres 
         N
@@ -488,8 +500,8 @@
  et 
         K
     {\displaystyle K}
- définis plus bas. Le modèle NK a des applications dans une grande variété de domaines, dont l'étude théorique de la biologie évolutive, l'immunologie, l'optimisation combinatoire, l'évolution technologique et les systèmes complexes. Le modèle a été également adopté en théorie des organisations, où on l'utilise pour décrire la façon dont un agent (entité individuelle ou collective comme un organisme ou un groupe) peut faire des recherches dans un paysage en manipulant plusieurs de ses caractéristiques. Par exemple, un agent peut être une organisation, les pics et les vallées représentent le profit (ou les changements de celui-ci), et le mouvement au sein du paysage nécessite des décisions organisationnelles (comme le fait d'ajouter des lignes de produit ou de modifier la structure organisationnelle), qui tendent à interagir entre elles et affecter le profit d'une manière complexe[1].
-Une première version du modèle a été présentée par Kauffman et Levin et 1987[2], qui considérait seulement les paysages les plus lisses (
+ définis plus bas. Le modèle NK a des applications dans une grande variété de domaines, dont l'étude théorique de la biologie évolutive, l'immunologie, l'optimisation combinatoire, l'évolution technologique et les systèmes complexes. Le modèle a été également adopté en théorie des organisations, où on l'utilise pour décrire la façon dont un agent (entité individuelle ou collective comme un organisme ou un groupe) peut faire des recherches dans un paysage en manipulant plusieurs de ses caractéristiques. Par exemple, un agent peut être une organisation, les pics et les vallées représentent le profit (ou les changements de celui-ci), et le mouvement au sein du paysage nécessite des décisions organisationnelles (comme le fait d'ajouter des lignes de produit ou de modifier la structure organisationnelle), qui tendent à interagir entre elles et affecter le profit d'une manière complexe.
+Une première version du modèle a été présentée par Kauffman et Levin et 1987, qui considérait seulement les paysages les plus lisses (
         K
         =
         0
@@ -499,8 +511,8 @@
         =
         N
     {\displaystyle K=N}
-). Le modèle sous sa forme actuelle est apparu la première fois dans la publication de Kauffman et Weinberger de 1989[3].
-L'une des raisons pour lesquelles le modèle a attiré l'attention de la part de la communauté scientifique en optimisation est qu'il s'agit d'un exemple particulièrement simple d'un problème dit NP-complet[4].
+). Le modèle sous sa forme actuelle est apparu la première fois dans la publication de Kauffman et Weinberger de 1989.
+L'une des raisons pour lesquelles le modèle a attiré l'attention de la part de la communauté scientifique en optimisation est qu'il s'agit d'un exemple particulièrement simple d'un problème dit NP-complet.
 </t>
         </is>
       </c>
@@ -511,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_NK</t>
+          <t>Modèle_NK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -529,7 +541,9 @@
           <t>Détails mathématiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le modèle NK définit un espace des phases combinatoire, dans lequel chaque chaîne de caractères (choisie à partir d'un alphabet donné) de longueur 
         N
@@ -612,7 +626,7 @@
         )
     {\displaystyle f(S_{i},S_{1}^{i},\dots ,S_{K}^{i})}
  est une cartographie entre des chaînes de longueur K+1 et des scalaires, ce que Weinberger a appelé plus tard les contributions à la fitness. De telles contributions à la fitness sont souvent choisies de façon aléatoire à partir d'une certaine distribution de probabilité spécifique.
-En 1991[5], Weinberger a publié une analyse détaillée du cas où 
+En 1991, Weinberger a publié une analyse détaillée du cas où 
         1
         &lt;&lt;
         k
@@ -675,7 +689,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_NK</t>
+          <t>Modèle_NK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -693,7 +707,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par souci de simplicité et de compréhension, on va travailler dans cet exemple avec des chaînes binaires. On considère un modèle NK avec N = 5 et K = 1. Ici, la fitness d'une chaîne est donnée par la somme des contributions à la fitness individuelles de chacun des 5 loci. Chaque contribution à la fitness dépend de la valeur du locus local ainsi que d'une autre. On va utiliser la convention selon laquelle 
         f
@@ -844,7 +860,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_NK</t>
+          <t>Modèle_NK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -862,11 +878,48 @@
           <t>Topologie ajustable</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La valeur de K contrôle le degré d'épistasie dans le modèle NK, ou bien à quel point les autres loci affectent la contribution à la fitness d'un locus donné. Avec K = 0, la fitness d'une chaîne donnée est une somme simple des contributions individuelles des loci : pour des fonctions de fitness non triviales, on a la présence d'un optimum global facile à localiser (le génome de tous les 0 si f(0) &gt; f(1), ou de tous les 1 si f(1) &gt; f(0)). Pour K non nul, la fitness d'une chaîne est la somme des fitness des sous-chaînes, qui peuvent interagir pour frustrer le système (voir la façon dont on obtient la fitness optimale dans l'exemple ci-dessus). Augmenter la valeur de K augmente ainsi la rugosité du paysage adaptatif.
-Variations dans les espaces neutres
-Le modèle NK de base ne supporte pas le phénomène d'espace neutre, c'est-à-dire les groupes de génomes connectés par des mutations simples ayant la même valeur de fitness. Deux adaptations ont été proposées pour inclure cette structure biologiquement importante :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valeur de K contrôle le degré d'épistasie dans le modèle NK, ou bien à quel point les autres loci affectent la contribution à la fitness d'un locus donné. Avec K = 0, la fitness d'une chaîne donnée est une somme simple des contributions individuelles des loci : pour des fonctions de fitness non triviales, on a la présence d'un optimum global facile à localiser (le génome de tous les 0 si f(0) &gt; f(1), ou de tous les 1 si f(1) &gt; f(0)). Pour K non nul, la fitness d'une chaîne est la somme des fitness des sous-chaînes, qui peuvent interagir pour frustrer le système (voir la façon dont on obtient la fitness optimale dans l'exemple ci-dessus). Augmenter la valeur de K augmente ainsi la rugosité du paysage adaptatif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Modèle_NK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8le_NK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Topologie ajustable</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variations dans les espaces neutres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le modèle NK de base ne supporte pas le phénomène d'espace neutre, c'est-à-dire les groupes de génomes connectés par des mutations simples ayant la même valeur de fitness. Deux adaptations ont été proposées pour inclure cette structure biologiquement importante :
 le modèle NKP introduit un paramètre 
         P
     {\displaystyle P}
@@ -896,8 +949,43 @@
         ∞
     {\displaystyle Q=\infty }
  dans ces conditions de paramétrisation.
-Extension Multi-objective du modèle NK
-Le modèle MNK[6] est une extension du modèle NK pour l'optimisation multiobjectif. Le paramètre 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Modèle_NK</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8le_NK</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Topologie ajustable</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Extension Multi-objective du modèle NK</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le modèle MNK est une extension du modèle NK pour l'optimisation multiobjectif. Le paramètre 
         M
     {\displaystyle M}
  configure le nombre d'objectifs.  Le paysage d'une fonction MNK est définie comme un vecteur de fonction  
@@ -944,7 +1032,7 @@
 Le modèle 
         ρ
     {\displaystyle \rho }
-MNK[7]est une adaptation du modèle MNK dont :
+MNKest une adaptation du modèle MNK dont :
 les structures épistasiques sont identiques pour tous les objectifs.
 le paramètre 
         ρ
@@ -953,31 +1041,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mod%C3%A8le_NK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Modèle_NK</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mod%C3%A8le_NK</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Applications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le modèle NK a trouvé son utilité dans de nombreux domaines, dont l'étude des verres de spin, l'épistasie et la pléiotropie en biologie évolutive, ainsi que l'optimisation combinatoire.
 </t>
